--- a/wild_reports/unknown_wild_report.xlsx
+++ b/wild_reports/unknown_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,7 +544,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -575,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -593,7 +597,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -606,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -624,7 +632,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -642,7 +650,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -673,7 +685,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -691,7 +703,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -704,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -722,7 +738,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -740,7 +756,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -753,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -791,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>FISHER</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">

--- a/wild_reports/unknown_wild_report.xlsx
+++ b/wild_reports/unknown_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,11 +544,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -561,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -579,7 +575,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +593,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -614,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -632,7 +624,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -650,11 +642,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -667,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -685,7 +673,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -703,11 +691,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -720,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -738,7 +722,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -756,11 +740,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>101</t>
@@ -773,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
